--- a/AA010_プロジェクト管理/ＷＢＳ.xlsx
+++ b/AA010_プロジェクト管理/ＷＢＳ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AA010_プロジェクト管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BE480C-4EE9-41E0-BCE5-9CA335565DE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF9595F-B8DF-4DD5-BB86-4CE872A25B36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24492" yWindow="4944" windowWidth="15816" windowHeight="10488" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="24744" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="必要なもの" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="45">
   <si>
     <t>チケット</t>
     <phoneticPr fontId="1"/>
@@ -371,6 +371,13 @@
     <t>#3929</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -378,7 +385,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="000"/>
-    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -560,10 +567,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="16">
@@ -584,7 +591,29 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -943,7 +972,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="19.8"/>
@@ -957,8 +986,7 @@
     <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.54296875" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.90625" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.7265625" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="7.90625" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1028,15 +1056,17 @@
         <v>33</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I2" s="4">
         <v>4</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="4">
+        <v>2</v>
+      </c>
       <c r="K2" s="17">
         <v>44310</v>
       </c>
@@ -1046,8 +1076,12 @@
       <c r="M2" s="17">
         <v>44315</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="N2" s="17">
+        <v>44311</v>
+      </c>
+      <c r="O2" s="17">
+        <v>44311</v>
+      </c>
       <c r="P2" s="5" t="str">
         <f>C2&amp;"　"&amp;D2&amp;"　"&amp;E2&amp;"　"&amp;F2</f>
         <v>STEP01　一通り作成　株価ファイルの読み込み　コンソールに出力　実装</v>
@@ -1169,7 +1203,7 @@
         <v>29</v>
       </c>
       <c r="I5" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="17">
@@ -6212,7 +6246,12 @@
   </sheetData>
   <autoFilter ref="A1:O251" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
-  <dataValidations disablePrompts="1" count="1">
+  <conditionalFormatting sqref="A2:O1000">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$G2="終了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G44" xr:uid="{CFE64A2A-AE55-42C7-BE41-62A34D431288}">
       <formula1>ステータス</formula1>
     </dataValidation>
@@ -6264,5 +6303,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AA010_プロジェクト管理/ＷＢＳ.xlsx
+++ b/AA010_プロジェクト管理/ＷＢＳ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AA010_プロジェクト管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF9595F-B8DF-4DD5-BB86-4CE872A25B36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47154F74-5AE8-411A-BCE6-040336E7CE5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="24744" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9348" yWindow="10380" windowWidth="24492" windowHeight="8460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="必要なもの" sheetId="8" r:id="rId1"/>
@@ -591,21 +591,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -972,7 +958,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="19.8"/>
@@ -1107,10 +1093,10 @@
         <v>35</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="4">
         <v>2</v>
@@ -1125,7 +1111,9 @@
       <c r="M3" s="17">
         <v>44315</v>
       </c>
-      <c r="N3" s="17"/>
+      <c r="N3" s="17">
+        <v>44315</v>
+      </c>
       <c r="O3" s="17"/>
       <c r="P3" s="5" t="str">
         <f t="shared" ref="P3:P5" si="0">C3&amp;"　"&amp;D3&amp;"　"&amp;E3&amp;"　"&amp;F3</f>
@@ -6247,7 +6235,7 @@
   <autoFilter ref="A1:O251" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A2:O1000">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2="終了"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AA010_プロジェクト管理/ＷＢＳ.xlsx
+++ b/AA010_プロジェクト管理/ＷＢＳ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AA010_プロジェクト管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47154F74-5AE8-411A-BCE6-040336E7CE5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1C12D9-2229-48EB-AB20-5AA3840E6A68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9348" yWindow="10380" windowWidth="24492" windowHeight="8460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="24744" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="必要なもの" sheetId="8" r:id="rId1"/>
@@ -958,7 +958,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="19.8"/>
@@ -1093,15 +1093,17 @@
         <v>35</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I3" s="4">
         <v>2</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
       <c r="K3" s="17">
         <v>44310</v>
       </c>
@@ -1114,7 +1116,9 @@
       <c r="N3" s="17">
         <v>44315</v>
       </c>
-      <c r="O3" s="17"/>
+      <c r="O3" s="17">
+        <v>44315</v>
+      </c>
       <c r="P3" s="5" t="str">
         <f t="shared" ref="P3:P5" si="0">C3&amp;"　"&amp;D3&amp;"　"&amp;E3&amp;"　"&amp;F3</f>
         <v>STEP01　一通り作成　株価ファイルの読み込み　テーブルへの挿入　テーブルの設計書を作成</v>

--- a/AA010_プロジェクト管理/ＷＢＳ.xlsx
+++ b/AA010_プロジェクト管理/ＷＢＳ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AA010_プロジェクト管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1C12D9-2229-48EB-AB20-5AA3840E6A68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8883E7-2DC7-4E0B-B504-D421578C5AC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="24744" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="96" yWindow="0" windowWidth="28380" windowHeight="7836" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="必要なもの" sheetId="8" r:id="rId1"/>
@@ -958,7 +958,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="19.8"/>
@@ -1144,15 +1144,17 @@
         <v>36</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I4" s="4">
         <v>2</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4">
+        <v>3.5</v>
+      </c>
       <c r="K4" s="17">
         <v>44310</v>
       </c>
@@ -1162,8 +1164,12 @@
       <c r="M4" s="17">
         <v>44315</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
+      <c r="N4" s="17">
+        <v>44315</v>
+      </c>
+      <c r="O4" s="17">
+        <v>44316</v>
+      </c>
       <c r="P4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>STEP01　一通り作成　株価ファイルの読み込み　テーブルへの挿入　DDLの作成とテーブル作成</v>

--- a/AA010_プロジェクト管理/ＷＢＳ.xlsx
+++ b/AA010_プロジェクト管理/ＷＢＳ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AA010_プロジェクト管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8883E7-2DC7-4E0B-B504-D421578C5AC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10C9386-1194-47CF-BEE0-43C5A8E8F67B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="0" windowWidth="28380" windowHeight="7836" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="24744" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="必要なもの" sheetId="8" r:id="rId1"/>
@@ -958,7 +958,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="19.8"/>
@@ -1195,15 +1195,17 @@
         <v>37</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I5" s="4">
         <v>4</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="4">
+        <v>7</v>
+      </c>
       <c r="K5" s="17">
         <v>44310</v>
       </c>
@@ -1213,8 +1215,12 @@
       <c r="M5" s="17">
         <v>44315</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
+      <c r="N5" s="17">
+        <v>44316</v>
+      </c>
+      <c r="O5" s="17">
+        <v>44317</v>
+      </c>
       <c r="P5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>STEP01　一通り作成　株価ファイルの読み込み　テーブルへの挿入　テーブルへの挿入処理実装</v>
